--- a/eval.xlsx
+++ b/eval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Library/CloudStorage/Dropbox/Sahel_analysis/ML/GenML/Pool No Sen BLP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/CLAN_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CBD701-6425-734B-BCE2-78BD0385C679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CC2B4-9B23-A449-B671-853A5028C5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1200" windowWidth="28040" windowHeight="17440" xr2:uid="{ACC90807-474A-7947-895C-D643E0903F9C}"/>
+    <workbookView xWindow="2200" yWindow="1200" windowWidth="28040" windowHeight="17440" xr2:uid="{ACC90807-474A-7947-895C-D643E0903F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated_ml_eval" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>Outcome</t>
   </si>
   <si>
-    <t>Total Consumption</t>
-  </si>
-  <si>
     <t>-79.4 [ 1.00 ]</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Ben Rev</t>
   </si>
   <si>
-    <t>Cons p AEQ</t>
-  </si>
-  <si>
     <t>58.0 [ 0.17 ]</t>
   </si>
   <si>
@@ -462,6 +456,12 @@
   </si>
   <si>
     <t>642.9 [ 0.07 ]</t>
+  </si>
+  <si>
+    <t>HH Cons</t>
+  </si>
+  <si>
+    <t>Cons/ AE</t>
   </si>
 </sst>
 </file>
@@ -1015,37 +1015,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1439,7 +1409,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1456,7 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -1521,7 +1491,7 @@
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -1556,7 +1526,7 @@
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1565,33 +1535,33 @@
         <v>0.107188236447177</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
@@ -1600,33 +1570,33 @@
         <v>0.11526628928917999</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
@@ -1635,33 +1605,33 @@
         <v>0.12901306865308601</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -1670,33 +1640,33 @@
         <v>9.6668503818466492E-3</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -1705,33 +1675,33 @@
         <v>2.9158472063288001E-2</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -1740,22 +1710,22 @@
         <v>1.2091566628137601E-2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>17</v>
@@ -1766,206 +1736,206 @@
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3">
         <v>0.23187739118957801</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3">
         <v>2.4241000613742601E-2</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3">
         <v>3.3765532907487697E-2</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3">
         <v>0.12268307433537599</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3">
         <v>3.0415120006268202E-2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3">
         <v>3.1937794670750697E-2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
@@ -1976,31 +1946,31 @@
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3">
         <v>8.3038524028483496E-2</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>26</v>
@@ -2011,45 +1981,45 @@
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3">
         <v>0.163709896234594</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3">
         <v>3.87199070939531E-2</v>
@@ -2058,19 +2028,19 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>17</v>
@@ -2081,31 +2051,31 @@
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3">
         <v>8.3254111985878093E-2</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>26</v>
@@ -2116,110 +2086,97 @@
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3">
         <v>0.164121591537748</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3">
         <v>3.8045860811880799E-2</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="J21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C9">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+  <conditionalFormatting sqref="C2:C21">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7 F13:F15 C10:C17 C19:C21">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="C6:C7 F13:F15">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15 C10:C17 C19:C21">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+  <conditionalFormatting sqref="F13:F15">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
-      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/eval.xlsx
+++ b/eval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Documents/GitHub/CLAN_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CC2B4-9B23-A449-B671-853A5028C5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0524E4-4BAB-B245-8EA0-79E94AC80726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1200" windowWidth="28040" windowHeight="17440" xr2:uid="{ACC90807-474A-7947-895C-D643E0903F9C}"/>
+    <workbookView xWindow="9580" yWindow="1700" windowWidth="17080" windowHeight="17440" xr2:uid="{ACC90807-474A-7947-895C-D643E0903F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated_ml_eval" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>arm</t>
   </si>
@@ -65,9 +65,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>AES_pool_capital_complete</t>
-  </si>
-  <si>
     <t>-0.0 [ 1.00 ]</t>
   </si>
   <si>
@@ -92,376 +89,199 @@
     <t>mlr3::lrn('svm', kernel = 'radial', cost = 50, gamma = 1, type = 'eps-regression')</t>
   </si>
   <si>
-    <t>AES_pool_psych_complete</t>
-  </si>
-  <si>
-    <t>-3.5 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>-9.3 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>2.7 [ 0.98 ]</t>
-  </si>
-  <si>
-    <t>37.1 [ 0.81 ]</t>
-  </si>
-  <si>
-    <t>363.0 [ 0.09 ]</t>
-  </si>
-  <si>
-    <t>357.7 [ 0.20 ]</t>
-  </si>
-  <si>
-    <t>mlr3::lrn('ranger', num.trees = 500, mtry = 9, min.node.size=20)</t>
-  </si>
-  <si>
     <t>Outcome</t>
   </si>
   <si>
-    <t>-79.4 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>20.9 [ 0.89 ]</t>
-  </si>
-  <si>
-    <t>216.2 [ 0.24 ]</t>
-  </si>
-  <si>
-    <t>654.0 [ 0.01 ]</t>
-  </si>
-  <si>
-    <t>207.2 [ 0.20 ]</t>
-  </si>
-  <si>
-    <t>285.0 [ 0.17 ]</t>
-  </si>
-  <si>
     <t>mlr3::lrn('ranger', num.trees = 500, mtry = 9, min.node.size=10)</t>
   </si>
   <si>
     <t>mlr3::lrn('svm', kernel = 'radial', cost = 1, gamma = 1, type = 'eps-regression')</t>
   </si>
   <si>
-    <t>-86.5 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>21.9 [ 0.89 ]</t>
-  </si>
-  <si>
-    <t>210.1 [ 0.29 ]</t>
-  </si>
-  <si>
-    <t>626.8 [ 0.01 ]</t>
-  </si>
-  <si>
-    <t>316.0 [ 0.04 ]</t>
-  </si>
-  <si>
-    <t>409.3 [ 0.06 ]</t>
-  </si>
-  <si>
-    <t>HH Rev</t>
-  </si>
-  <si>
     <t>Ben Rev</t>
   </si>
   <si>
-    <t>58.0 [ 0.17 ]</t>
-  </si>
-  <si>
-    <t>38.6 [ 0.37 ]</t>
-  </si>
-  <si>
-    <t>66.6 [ 0.18 ]</t>
-  </si>
-  <si>
-    <t>168.6 [ 0.01 ]</t>
-  </si>
-  <si>
-    <t>125.3 [ 0.10 ]</t>
-  </si>
-  <si>
-    <t>74.4 [ 0.42 ]</t>
-  </si>
-  <si>
     <t>mlr3::lrn('kknn', k = 3, kernel = 'epanechnikov')</t>
   </si>
   <si>
     <t>mlr3::lrn('svm', kernel = 'radial', cost = 50, gamma = 10, type = 'eps-regression')</t>
   </si>
   <si>
-    <t>15.0 [ 0.66 ]</t>
-  </si>
-  <si>
-    <t>29.5 [ 0.40 ]</t>
-  </si>
-  <si>
-    <t>84.3 [ 0.03 ]</t>
-  </si>
-  <si>
-    <t>240.0 [ 0.01 ]</t>
-  </si>
-  <si>
-    <t>491.3 [ 0.00 ]</t>
-  </si>
-  <si>
-    <t>473.2 [ 0.00 ]</t>
-  </si>
-  <si>
     <t>mlr3::lrn('svm', kernel = 'radial', cost = 10, gamma = 1, type = 'eps-regression')</t>
   </si>
   <si>
-    <t>-0.1 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.57 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.54 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.32 ]</t>
-  </si>
-  <si>
-    <t>0.2 [ 0.05 ]</t>
-  </si>
-  <si>
-    <t>0.4 [ 0.05 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.56 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.55 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.42 ]</t>
-  </si>
-  <si>
-    <t>0.3 [ 0.02 ]</t>
-  </si>
-  <si>
-    <t>Psychosocial</t>
-  </si>
-  <si>
-    <t>-29.2 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>43.6 [ 0.33 ]</t>
-  </si>
-  <si>
     <t>214.5 [ 0.06 ]</t>
   </si>
   <si>
-    <t>132.9 [ 0.15 ]</t>
-  </si>
-  <si>
-    <t>64.8 [ 0.27 ]</t>
-  </si>
-  <si>
-    <t>91.1 [ 0.19 ]</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
     <t>0.1 [ 1.00 ]</t>
   </si>
   <si>
-    <t>62.1 [ 0.21 ]</t>
-  </si>
-  <si>
     <t>186.6 [ 0.02 ]</t>
   </si>
   <si>
-    <t>329.4 [ 0.01 ]</t>
-  </si>
-  <si>
     <t>217.0 [ 0.01 ]</t>
   </si>
   <si>
-    <t>214.9 [ 0.02 ]</t>
-  </si>
-  <si>
-    <t>-15.1 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>58.2 [ 0.22 ]</t>
-  </si>
-  <si>
-    <t>199.6 [ 0.01 ]</t>
-  </si>
-  <si>
-    <t>427.2 [ 0.00 ]</t>
-  </si>
-  <si>
-    <t>254.9 [ 0.00 ]</t>
-  </si>
-  <si>
-    <t>272.0 [ 0.00 ]</t>
-  </si>
-  <si>
     <t>mlr3::lrn('kknn', k = 10, kernel = 'epanechnikov')</t>
   </si>
   <si>
-    <t>-0.2 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>0.0 [ 0.72 ]</t>
-  </si>
-  <si>
-    <t>0.0 [ 0.70 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.45 ]</t>
-  </si>
-  <si>
-    <t>0.2 [ 0.13 ]</t>
-  </si>
-  <si>
-    <t>0.4 [ 0.08 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.47 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.50 ]</t>
-  </si>
-  <si>
-    <t>0.3 [ 0.09 ]</t>
-  </si>
-  <si>
-    <t>0.4 [ 0.07 ]</t>
-  </si>
-  <si>
-    <t>mlr3::lrn('kknn', k = 10)</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.43 ]</t>
-  </si>
-  <si>
-    <t>0.1 [ 0.31 ]</t>
-  </si>
-  <si>
-    <t>0.3 [ 0.05 ]</t>
-  </si>
-  <si>
-    <t>0.4 [ 0.10 ]</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>-0.9 [ 1.00 ]</t>
   </si>
   <si>
-    <t>0.2 [ 0.77 ]</t>
-  </si>
-  <si>
-    <t>0.4 [ 0.54 ]</t>
-  </si>
-  <si>
-    <t>0.5 [ 0.51 ]</t>
-  </si>
-  <si>
-    <t>1.4 [ 0.21 ]</t>
-  </si>
-  <si>
-    <t>0.8 [ 0.27 ]</t>
-  </si>
-  <si>
-    <t>0.4 [ 0.51 ]</t>
-  </si>
-  <si>
-    <t>0.4 [ 0.49 ]</t>
-  </si>
-  <si>
     <t>0.4 [ 0.53 ]</t>
   </si>
   <si>
-    <t>0.3 [ 0.65 ]</t>
-  </si>
-  <si>
-    <t>-0.4 [ 1.00 ]</t>
-  </si>
-  <si>
     <t>mlr3::lrn('cv_glmnet', alpha = 1)</t>
   </si>
   <si>
-    <t>0.6 [ 0.37 ]</t>
-  </si>
-  <si>
-    <t>0.7 [ 0.39 ]</t>
-  </si>
-  <si>
-    <t>0.4 [ 0.60 ]</t>
-  </si>
-  <si>
     <t>1.7 [ 0.01 ]</t>
   </si>
   <si>
-    <t>1.8 [ 0.07 ]</t>
-  </si>
-  <si>
-    <t>-327.2 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>61.0 [ 0.78 ]</t>
-  </si>
-  <si>
-    <t>150.4 [ 0.51 ]</t>
-  </si>
-  <si>
-    <t>176.0 [ 0.44 ]</t>
-  </si>
-  <si>
-    <t>185.4 [ 0.47 ]</t>
-  </si>
-  <si>
-    <t>501.9 [ 0.21 ]</t>
-  </si>
-  <si>
-    <t>286.6 [ 0.27 ]</t>
-  </si>
-  <si>
-    <t>152.1 [ 0.51 ]</t>
-  </si>
-  <si>
-    <t>158.6 [ 0.49 ]</t>
-  </si>
-  <si>
-    <t>143.7 [ 0.52 ]</t>
-  </si>
-  <si>
-    <t>116.7 [ 0.65 ]</t>
-  </si>
-  <si>
-    <t>-166.4 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>-13.5 [ 1.00 ]</t>
-  </si>
-  <si>
-    <t>234.0 [ 0.38 ]</t>
-  </si>
-  <si>
-    <t>245.3 [ 0.39 ]</t>
-  </si>
-  <si>
-    <t>136.2 [ 0.60 ]</t>
-  </si>
-  <si>
-    <t>634.0 [ 0.01 ]</t>
-  </si>
-  <si>
-    <t>642.9 [ 0.07 ]</t>
-  </si>
-  <si>
     <t>HH Cons</t>
   </si>
   <si>
-    <t>Cons/ AE</t>
+    <t>AES_complete</t>
+  </si>
+  <si>
+    <t>-15.2 [ 1.00 ]</t>
+  </si>
+  <si>
+    <t>58.1 [ 0.22 ]</t>
+  </si>
+  <si>
+    <t>198.2 [ 0.01 ]</t>
+  </si>
+  <si>
+    <t>426.9 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>255.0 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>272.3 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>AES_psych</t>
+  </si>
+  <si>
+    <t>-28.8 [ 1.00 ]</t>
+  </si>
+  <si>
+    <t>43.8 [ 0.33 ]</t>
+  </si>
+  <si>
+    <t>133.0 [ 0.15 ]</t>
+  </si>
+  <si>
+    <t>65.2 [ 0.26 ]</t>
+  </si>
+  <si>
+    <t>91.9 [ 0.19 ]</t>
+  </si>
+  <si>
+    <t>AES_capital</t>
+  </si>
+  <si>
+    <t>61.7 [ 0.21 ]</t>
+  </si>
+  <si>
+    <t>329.9 [ 0.01 ]</t>
+  </si>
+  <si>
+    <t>214.9 [ 0.03 ]</t>
+  </si>
+  <si>
+    <t>AES_poolcapitalcomplete</t>
+  </si>
+  <si>
+    <t>16.3 [ 0.63 ]</t>
+  </si>
+  <si>
+    <t>30.7 [ 0.39 ]</t>
+  </si>
+  <si>
+    <t>82.9 [ 0.04 ]</t>
+  </si>
+  <si>
+    <t>238.6 [ 0.02 ]</t>
+  </si>
+  <si>
+    <t>482.9 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>465.8 [ 0.00 ]</t>
+  </si>
+  <si>
+    <t>AES_poolpsychcomplete</t>
+  </si>
+  <si>
+    <t>57.9 [ 0.17 ]</t>
+  </si>
+  <si>
+    <t>39.1 [ 0.36 ]</t>
+  </si>
+  <si>
+    <t>66.9 [ 0.19 ]</t>
+  </si>
+  <si>
+    <t>170.5 [ 0.01 ]</t>
+  </si>
+  <si>
+    <t>125.2 [ 0.11 ]</t>
+  </si>
+  <si>
+    <t>73.9 [ 0.41 ]</t>
+  </si>
+  <si>
+    <t>0.7 [ 0.34 ]</t>
+  </si>
+  <si>
+    <t>0.3 [ 0.62 ]</t>
+  </si>
+  <si>
+    <t>1.7 [ 0.08 ]</t>
+  </si>
+  <si>
+    <t>0.2 [ 0.72 ]</t>
+  </si>
+  <si>
+    <t>0.5 [ 0.41 ]</t>
+  </si>
+  <si>
+    <t>0.4 [ 0.56 ]</t>
+  </si>
+  <si>
+    <t>1.3 [ 0.22 ]</t>
+  </si>
+  <si>
+    <t>0.7 [ 0.30 ]</t>
+  </si>
+  <si>
+    <t>0.5 [ 0.48 ]</t>
+  </si>
+  <si>
+    <t>0.3 [ 0.67 ]</t>
+  </si>
+  <si>
+    <t>-0.5 [ 1.00 ]</t>
+  </si>
+  <si>
+    <t>0.2 [ 0.71 ]</t>
+  </si>
+  <si>
+    <t>0.4 [ 0.50 ]</t>
+  </si>
+  <si>
+    <t>0.6 [ 0.34 ]</t>
+  </si>
+  <si>
+    <t>0.2 [ 0.76 ]</t>
+  </si>
+  <si>
+    <t>1.1 [ 0.05 ]</t>
+  </si>
+  <si>
+    <t>0.9 [ 0.27 ]</t>
   </si>
 </sst>
 </file>
@@ -1406,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6642ED-3BFB-C544-B229-9020432ECCD8}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" activeCellId="1" sqref="A7:XFD11 A17:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1421,7 +1241,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1456,706 +1276,359 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.92526890643764E-2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>3.3765479932080497E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.134581923911028</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>0.23187932778856701</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.107188236447177</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>2.4228923482930601E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.11526628928917999</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>9.6750088308025506E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.12901306865308601</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>0.129012733813999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>3.9767767091790703E-2</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
-        <v>9.6668503818466492E-3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>58</v>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>9.4449431103503595E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3">
-        <v>2.9158472063288001E-2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>34</v>
+      <c r="K8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.2091566628137601E-2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>0.17217845333559501</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.23187739118957801</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>1.92526890643764E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2.4241000613742601E-2</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>4.2868436927260403E-2</v>
+      </c>
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3.3765532907487697E-2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.12268307433537599</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3.0415120006268202E-2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3.1937794670750697E-2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3">
-        <v>8.3038524028483496E-2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.163709896234594</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3.87199070939531E-2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="3">
-        <v>8.3254111985878093E-2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.164121591537748</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3.8045860811880799E-2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>18</v>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
+  <conditionalFormatting sqref="C2:C11">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2166,7 +1639,7 @@
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7 F13:F15">
+  <conditionalFormatting sqref="C6 F8:F10">
     <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
@@ -2174,7 +1647,7 @@
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15">
+  <conditionalFormatting sqref="F8:F10">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
